--- a/data/trans_camb/P8_2_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P8_2_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 11,23</t>
+          <t>-6,12; 11,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 20,17</t>
+          <t>0,97; 20,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 23,66</t>
+          <t>2,15; 22,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 14,44</t>
+          <t>-8,63; 14,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 9,61</t>
+          <t>-15,49; 6,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 8,51</t>
+          <t>-10,86; 7,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 10,43</t>
+          <t>-4,75; 10,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 11,47</t>
+          <t>-4,46; 10,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 13,44</t>
+          <t>-2,15; 12,48</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-40,14; 144,74</t>
+          <t>-35,97; 134,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 230,75</t>
+          <t>-1,75; 231,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,35; 303,22</t>
+          <t>10,05; 255,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,55; 59,29</t>
+          <t>-25,54; 65,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,25; 42,01</t>
+          <t>-44,93; 27,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,33; 38,94</t>
+          <t>-30,96; 34,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 63,92</t>
+          <t>-19,59; 63,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,87; 64,08</t>
+          <t>-17,48; 64,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 80,77</t>
+          <t>-8,01; 73,15</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 6,8</t>
+          <t>-1,63; 6,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 3,81</t>
+          <t>-3,65; 4,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 5,89</t>
+          <t>-2,01; 6,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 8,62</t>
+          <t>-1,64; 9,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 8,68</t>
+          <t>-2,29; 8,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 2,74</t>
+          <t>-5,94; 2,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 6,25</t>
+          <t>-0,21; 6,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 4,76</t>
+          <t>-1,49; 4,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 3,56</t>
+          <t>-2,55; 3,49</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 55,87</t>
+          <t>-10,68; 54,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,31; 31,7</t>
+          <t>-23,62; 37,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 49,67</t>
+          <t>-12,05; 52,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 44,14</t>
+          <t>-6,49; 48,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 42,26</t>
+          <t>-9,29; 42,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 13,55</t>
+          <t>-23,82; 15,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 38,13</t>
+          <t>-0,89; 41,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 28,55</t>
+          <t>-7,25; 29,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 21,85</t>
+          <t>-12,84; 21,27</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 6,71</t>
+          <t>0,49; 6,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 4,55</t>
+          <t>-1,64; 4,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 18,14</t>
+          <t>-1,25; 19,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 6,51</t>
+          <t>-1,42; 6,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 5,69</t>
+          <t>-2,64; 5,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 3,27</t>
+          <t>-3,31; 3,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,68</t>
+          <t>0,46; 5,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 4,16</t>
+          <t>-1,04; 3,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 8,63</t>
+          <t>-1,1; 9,21</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,5; 58,74</t>
+          <t>2,94; 55,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 40,04</t>
+          <t>-11,26; 38,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 149,03</t>
+          <t>-9,65; 163,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 31,48</t>
+          <t>-5,72; 29,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 27,2</t>
+          <t>-10,38; 25,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,72; 15,83</t>
+          <t>-13,09; 19,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,62; 33,26</t>
+          <t>2,41; 34,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 24,55</t>
+          <t>-5,37; 24,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 52,27</t>
+          <t>-5,96; 53,97</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 0,94</t>
+          <t>-7,01; 1,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 2,2</t>
+          <t>-5,6; 2,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 6,78</t>
+          <t>-1,57; 6,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 2,34</t>
+          <t>-5,94; 2,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 0,98</t>
+          <t>-7,59; 1,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,68; -0,42</t>
+          <t>-13,0; -0,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 0,79</t>
+          <t>-5,43; 0,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 0,59</t>
+          <t>-5,35; 0,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 1,69</t>
+          <t>-5,35; 1,83</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-39,49; 7,29</t>
+          <t>-39,9; 8,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,77; 17,28</t>
+          <t>-31,55; 15,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 50,08</t>
+          <t>-9,37; 49,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,01; 10,34</t>
+          <t>-22,03; 13,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-28,31; 4,34</t>
+          <t>-28,14; 6,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-49,32; -2,62</t>
+          <t>-47,78; -2,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-23,29; 4,4</t>
+          <t>-24,8; 2,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-24,53; 3,23</t>
+          <t>-24,56; 2,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,12; 8,68</t>
+          <t>-24,69; 9,63</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 6,21</t>
+          <t>-0,6; 5,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 3,71</t>
+          <t>-2,86; 3,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 4,65</t>
+          <t>-1,25; 4,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,77; 8,63</t>
+          <t>1,17; 9,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 2,06</t>
+          <t>-5,85; 1,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 5,21</t>
+          <t>-1,63; 5,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,18; 6,48</t>
+          <t>0,95; 6,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 1,81</t>
+          <t>-2,99; 1,77</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 4,23</t>
+          <t>-0,66; 4,34</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 50,51</t>
+          <t>-4,15; 48,2</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-16,81; 29,32</t>
+          <t>-18,57; 26,6</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 36,53</t>
+          <t>-8,07; 38,64</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3,59; 42,03</t>
+          <t>4,68; 43,04</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-23,3; 10,26</t>
+          <t>-24,04; 7,36</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 25,43</t>
+          <t>-6,82; 23,56</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>6,13; 37,96</t>
+          <t>4,97; 34,41</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 10,84</t>
+          <t>-15,73; 10,51</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 24,36</t>
+          <t>-3,14; 25,7</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,52</t>
+          <t>-0,03; 3,61</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,41</t>
+          <t>-1,21; 2,27</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,91; 7,54</t>
+          <t>0,88; 7,53</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,59</t>
+          <t>0,33; 4,63</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 1,59</t>
+          <t>-2,42; 1,76</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 1,11</t>
+          <t>-3,74; 0,97</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,49</t>
+          <t>0,68; 3,53</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,51</t>
+          <t>-1,32; 1,39</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 3,25</t>
+          <t>-0,41; 3,26</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 26,88</t>
+          <t>-0,12; 27,6</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 18,36</t>
+          <t>-8,16; 17,3</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>6,17; 55,29</t>
+          <t>6,05; 56,52</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1,98; 20,41</t>
+          <t>1,18; 20,59</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 7,1</t>
+          <t>-10,08; 8,0</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 4,87</t>
+          <t>-15,78; 4,29</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>4,23; 19,41</t>
+          <t>3,5; 19,59</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 8,4</t>
+          <t>-6,86; 7,89</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 17,75</t>
+          <t>-2,22; 17,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_2_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P8_2_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 11,29</t>
+          <t>-6,09; 11,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 20,48</t>
+          <t>0,44; 21,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 22,34</t>
+          <t>2,44; 23,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 14,8</t>
+          <t>-8,98; 15,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 6,72</t>
+          <t>-14,27; 7,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 7,63</t>
+          <t>-11,19; 9,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 10,85</t>
+          <t>-4,61; 11,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 10,69</t>
+          <t>-4,15; 11,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 12,48</t>
+          <t>-0,81; 13,07</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-35,97; 134,83</t>
+          <t>-34,07; 136,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 231,49</t>
+          <t>-2,73; 235,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,05; 255,4</t>
+          <t>8,09; 270,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 65,45</t>
+          <t>-25,24; 70,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,93; 27,43</t>
+          <t>-42,56; 30,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,96; 34,02</t>
+          <t>-32,02; 41,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 63,47</t>
+          <t>-19,82; 59,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 64,01</t>
+          <t>-16,98; 66,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 73,15</t>
+          <t>-3,09; 80,23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 6,58</t>
+          <t>-2,07; 6,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 4,42</t>
+          <t>-4,05; 4,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 6,02</t>
+          <t>-2,01; 6,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 9,17</t>
+          <t>-1,13; 8,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 8,36</t>
+          <t>-2,14; 8,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 2,93</t>
+          <t>-6,25; 2,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 6,56</t>
+          <t>-0,04; 6,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 4,85</t>
+          <t>-1,62; 4,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 3,49</t>
+          <t>-2,8; 3,43</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 54,75</t>
+          <t>-12,91; 55,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,62; 37,78</t>
+          <t>-25,66; 32,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 52,75</t>
+          <t>-12,3; 53,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 48,36</t>
+          <t>-5,12; 44,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 42,54</t>
+          <t>-8,91; 41,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,82; 15,11</t>
+          <t>-25,04; 14,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 41,39</t>
+          <t>-0,23; 39,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 29,87</t>
+          <t>-8,86; 28,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 21,27</t>
+          <t>-14,38; 21,12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 6,57</t>
+          <t>0,07; 6,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 4,49</t>
+          <t>-1,72; 4,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 19,18</t>
+          <t>-1,45; 18,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 6,32</t>
+          <t>-1,75; 6,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 5,36</t>
+          <t>-2,25; 5,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 3,87</t>
+          <t>-3,55; 3,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 5,67</t>
+          <t>0,24; 5,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 3,91</t>
+          <t>-1,25; 3,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 9,21</t>
+          <t>-1,02; 9,55</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,94; 55,82</t>
+          <t>0,38; 56,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 38,54</t>
+          <t>-11,79; 39,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 163,75</t>
+          <t>-11,22; 162,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 29,24</t>
+          <t>-6,98; 33,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 25,82</t>
+          <t>-9,46; 27,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 19,12</t>
+          <t>-14,3; 16,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,41; 34,24</t>
+          <t>1,21; 33,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 24,14</t>
+          <t>-6,4; 23,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 53,97</t>
+          <t>-5,75; 56,88</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 1,05</t>
+          <t>-6,94; 0,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 2,16</t>
+          <t>-5,35; 2,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 6,64</t>
+          <t>-1,01; 7,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 2,88</t>
+          <t>-6,25; 3,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 1,45</t>
+          <t>-7,84; 0,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,0; -0,45</t>
+          <t>-12,81; -0,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 0,62</t>
+          <t>-5,25; 0,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 0,48</t>
+          <t>-5,39; 0,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 1,83</t>
+          <t>-5,58; 1,98</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-39,9; 8,52</t>
+          <t>-38,53; 4,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,55; 15,64</t>
+          <t>-30,94; 16,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 49,19</t>
+          <t>-5,92; 54,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 13,08</t>
+          <t>-23,23; 14,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-28,14; 6,93</t>
+          <t>-29,05; 3,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-47,78; -2,61</t>
+          <t>-48,11; -2,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-24,8; 2,93</t>
+          <t>-24,31; 3,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 2,71</t>
+          <t>-24,76; 4,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-24,69; 9,63</t>
+          <t>-25,69; 10,45</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 5,94</t>
+          <t>-0,69; 6,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 3,41</t>
+          <t>-2,66; 3,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 4,98</t>
+          <t>-1,28; 4,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,17; 9,0</t>
+          <t>1,0; 8,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 1,48</t>
+          <t>-6,04; 1,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 5,01</t>
+          <t>-1,91; 5,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,95; 6,09</t>
+          <t>1,3; 6,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 1,77</t>
+          <t>-3,47; 1,64</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 4,34</t>
+          <t>-0,76; 4,14</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 48,2</t>
+          <t>-4,48; 52,13</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-18,57; 26,6</t>
+          <t>-17,35; 26,01</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 38,64</t>
+          <t>-8,61; 36,46</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>4,68; 43,04</t>
+          <t>3,86; 42,08</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-24,04; 7,36</t>
+          <t>-24,33; 7,76</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 23,56</t>
+          <t>-7,98; 25,47</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,97; 34,41</t>
+          <t>6,48; 35,59</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-15,73; 10,51</t>
+          <t>-17,42; 9,39</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 25,7</t>
+          <t>-3,97; 24,09</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 3,61</t>
+          <t>-0,0; 3,4</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,27</t>
+          <t>-1,31; 2,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,53</t>
+          <t>0,7; 7,36</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,63</t>
+          <t>0,45; 4,78</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,76</t>
+          <t>-2,54; 1,62</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 0,97</t>
+          <t>-3,42; 1,11</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,53</t>
+          <t>0,7; 3,56</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,39</t>
+          <t>-1,18; 1,45</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 3,26</t>
+          <t>-0,42; 3,35</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 27,6</t>
+          <t>-0,11; 26,07</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 17,3</t>
+          <t>-8,75; 15,16</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>6,05; 56,52</t>
+          <t>4,35; 53,1</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1,18; 20,59</t>
+          <t>1,89; 21,53</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 8,0</t>
+          <t>-10,56; 7,36</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 4,29</t>
+          <t>-13,93; 5,06</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>3,5; 19,59</t>
+          <t>3,42; 19,4</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 7,89</t>
+          <t>-6,1; 8,1</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 17,76</t>
+          <t>-2,11; 18,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_2_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P8_2_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 11,09</t>
+          <t>-7,16; 11,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 21,72</t>
+          <t>0,27; 20,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,44; 23,13</t>
+          <t>1,93; 23,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 15,91</t>
+          <t>-8,91; 14,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 7,51</t>
+          <t>-15,6; 9,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 9,32</t>
+          <t>-11,16; 8,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 11,11</t>
+          <t>-4,37; 10,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 11,31</t>
+          <t>-4,56; 11,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 13,07</t>
+          <t>-0,64; 13,44</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-34,07; 136,29</t>
+          <t>-40,14; 144,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 235,78</t>
+          <t>-1,92; 230,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,09; 270,29</t>
+          <t>10,35; 303,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 70,52</t>
+          <t>-26,55; 59,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-42,56; 30,66</t>
+          <t>-45,25; 42,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,02; 41,0</t>
+          <t>-32,33; 38,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 59,95</t>
+          <t>-17,9; 63,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 66,01</t>
+          <t>-18,87; 64,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 80,23</t>
+          <t>-2,62; 80,77</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 6,93</t>
+          <t>-1,76; 6,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 4,04</t>
+          <t>-4,13; 3,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 6,18</t>
+          <t>-2,23; 5,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 8,76</t>
+          <t>-1,19; 8,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 8,08</t>
+          <t>-1,44; 8,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 2,93</t>
+          <t>-5,74; 2,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 6,57</t>
+          <t>-0,14; 6,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 4,66</t>
+          <t>-1,69; 4,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 3,43</t>
+          <t>-2,61; 3,56</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,91; 55,85</t>
+          <t>-12,17; 55,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,66; 32,39</t>
+          <t>-25,31; 31,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 53,28</t>
+          <t>-13,14; 49,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 44,23</t>
+          <t>-5,17; 44,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 41,37</t>
+          <t>-6,19; 42,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,04; 14,83</t>
+          <t>-23,2; 13,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 39,93</t>
+          <t>-0,77; 38,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 28,75</t>
+          <t>-8,9; 28,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 21,12</t>
+          <t>-13,25; 21,85</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 6,58</t>
+          <t>0,22; 6,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 4,49</t>
+          <t>-1,7; 4,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 18,95</t>
+          <t>-1,63; 18,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 6,94</t>
+          <t>-1,62; 6,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 5,63</t>
+          <t>-2,42; 5,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 3,39</t>
+          <t>-3,7; 3,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 5,57</t>
+          <t>0,52; 5,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 3,93</t>
+          <t>-1,1; 4,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 9,55</t>
+          <t>-1,36; 8,63</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 56,72</t>
+          <t>1,5; 58,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 39,71</t>
+          <t>-12,13; 40,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 162,39</t>
+          <t>-12,24; 149,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 33,81</t>
+          <t>-6,44; 31,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 27,01</t>
+          <t>-9,81; 27,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 16,36</t>
+          <t>-14,72; 15,83</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,21; 33,15</t>
+          <t>2,62; 33,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 23,68</t>
+          <t>-5,99; 24,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 56,88</t>
+          <t>-7,34; 52,27</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 0,63</t>
+          <t>-6,81; 0,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 2,22</t>
+          <t>-5,45; 2,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 7,09</t>
+          <t>-1,48; 6,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 3,14</t>
+          <t>-6,28; 2,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 0,86</t>
+          <t>-7,64; 0,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,81; -0,61</t>
+          <t>-12,68; -0,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 0,67</t>
+          <t>-5,11; 0,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 0,82</t>
+          <t>-5,42; 0,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 1,98</t>
+          <t>-6,26; 1,69</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-38,53; 4,93</t>
+          <t>-39,49; 7,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,94; 16,32</t>
+          <t>-30,77; 17,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 54,33</t>
+          <t>-8,59; 50,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 14,34</t>
+          <t>-23,01; 10,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,05; 3,76</t>
+          <t>-28,31; 4,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-48,11; -2,74</t>
+          <t>-49,32; -2,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-24,31; 3,51</t>
+          <t>-23,29; 4,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-24,76; 4,27</t>
+          <t>-24,53; 3,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-25,69; 10,45</t>
+          <t>-28,12; 8,68</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 6,4</t>
+          <t>-0,88; 6,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 3,33</t>
+          <t>-2,53; 3,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 4,61</t>
+          <t>-1,44; 4,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,0; 8,78</t>
+          <t>0,77; 8,63</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 1,7</t>
+          <t>-5,67; 2,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 5,38</t>
+          <t>-1,85; 5,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,3; 6,18</t>
+          <t>1,18; 6,48</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 1,64</t>
+          <t>-3,37; 1,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 4,14</t>
+          <t>-0,44; 4,23</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 52,13</t>
+          <t>-5,61; 50,51</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-17,35; 26,01</t>
+          <t>-16,81; 29,32</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 36,46</t>
+          <t>-9,48; 36,53</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3,86; 42,08</t>
+          <t>3,59; 42,03</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 7,76</t>
+          <t>-23,3; 10,26</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 25,47</t>
+          <t>-7,3; 25,43</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>6,48; 35,59</t>
+          <t>6,13; 37,96</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 9,39</t>
+          <t>-17,15; 10,84</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 24,09</t>
+          <t>-2,22; 24,36</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 3,4</t>
+          <t>-0,15; 3,52</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 2,0</t>
+          <t>-1,1; 2,41</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,7; 7,36</t>
+          <t>0,91; 7,54</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,78</t>
+          <t>0,51; 4,59</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 1,62</t>
+          <t>-2,39; 1,59</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 1,11</t>
+          <t>-3,29; 1,11</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,56</t>
+          <t>0,82; 3,49</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 1,45</t>
+          <t>-1,25; 1,51</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 3,35</t>
+          <t>-0,49; 3,25</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 26,07</t>
+          <t>-1,05; 26,88</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 15,16</t>
+          <t>-7,49; 18,36</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>4,35; 53,1</t>
+          <t>6,17; 55,29</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1,89; 21,53</t>
+          <t>1,98; 20,41</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 7,36</t>
+          <t>-9,93; 7,1</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 5,06</t>
+          <t>-13,51; 4,87</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>3,42; 19,4</t>
+          <t>4,23; 19,41</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 8,1</t>
+          <t>-6,45; 8,4</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 18,95</t>
+          <t>-2,53; 17,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_2_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P8_2_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,75</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,24</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,06</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,69</t>
+          <t>0,78</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 11,23</t>
+          <t>-1,33; 6,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 20,17</t>
+          <t>-2,0; 5,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 23,66</t>
+          <t>-0,56; 7,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 14,44</t>
+          <t>-1,17; 8,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 9,61</t>
+          <t>-3,07; 6,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 8,51</t>
+          <t>-7,48; 1,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 10,43</t>
+          <t>0,11; 6,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 11,47</t>
+          <t>-1,08; 5,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 13,44</t>
+          <t>-2,3; 3,41</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,41%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82,99%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>94,48%</t>
+          <t>24,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,93%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,7%</t>
+          <t>-9,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,16%</t>
+          <t>4,2%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-40,14; 144,74</t>
+          <t>-8,65; 53,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 230,75</t>
+          <t>-13,04; 48,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,35; 303,22</t>
+          <t>-3,65; 60,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,55; 59,29</t>
+          <t>-3,66; 39,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,25; 42,01</t>
+          <t>-11,72; 31,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,33; 38,94</t>
+          <t>-29,18; 8,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 63,92</t>
+          <t>0,42; 35,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,87; 64,08</t>
+          <t>-5,91; 29,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 80,77</t>
+          <t>-11,6; 20,32</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>17,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>8,97</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 6,8</t>
+          <t>0,22; 6,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 3,81</t>
+          <t>-1,7; 4,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 5,89</t>
+          <t>-1,84; 49,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 8,62</t>
+          <t>-1,62; 6,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 8,68</t>
+          <t>-2,42; 5,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 2,74</t>
+          <t>-3,69; 3,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 6,25</t>
+          <t>0,52; 5,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 4,76</t>
+          <t>-1,1; 4,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 3,56</t>
+          <t>-1,33; 32,75</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,58%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>132,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,19%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>50,2%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 55,87</t>
+          <t>1,5; 58,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,31; 31,7</t>
+          <t>-12,13; 40,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 49,67</t>
+          <t>-13,13; 411,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 44,14</t>
+          <t>-6,44; 31,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 42,26</t>
+          <t>-9,81; 27,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 13,55</t>
+          <t>-14,66; 15,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 38,13</t>
+          <t>2,62; 33,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 28,55</t>
+          <t>-5,99; 24,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 21,85</t>
+          <t>-7,07; 188,72</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-8,16</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>-2,99</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 6,71</t>
+          <t>-6,81; 0,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 4,55</t>
+          <t>-5,45; 2,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 18,14</t>
+          <t>-1,87; 6,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 6,51</t>
+          <t>-6,28; 2,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 5,69</t>
+          <t>-7,64; 0,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 3,27</t>
+          <t>-17,06; -1,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,68</t>
+          <t>-5,11; 0,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 4,16</t>
+          <t>-5,42; 0,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 8,63</t>
+          <t>-9,8; 0,43</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>-19,2%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>-9,94%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>29,39%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>-6,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>-13,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>-32,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>-11,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>-11,9%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>-14,81%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,5; 58,74</t>
+          <t>-39,49; 7,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 40,04</t>
+          <t>-30,77; 17,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 149,03</t>
+          <t>-10,74; 46,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 31,48</t>
+          <t>-23,01; 10,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 27,2</t>
+          <t>-28,31; 4,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,72; 15,83</t>
+          <t>-64,43; -7,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,62; 33,26</t>
+          <t>-23,29; 4,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 24,55</t>
+          <t>-24,53; 3,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 52,27</t>
+          <t>-46,51; 1,99</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,29</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>0,7</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 0,94</t>
+          <t>-0,88; 6,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 2,2</t>
+          <t>-2,53; 3,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 6,78</t>
+          <t>-1,74; 4,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 2,34</t>
+          <t>0,77; 8,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 0,98</t>
+          <t>-5,67; 2,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,68; -0,42</t>
+          <t>-4,69; 3,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 0,79</t>
+          <t>1,18; 6,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 0,59</t>
+          <t>-3,37; 1,81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 1,69</t>
+          <t>-2,1; 3,13</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-19,2%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-9,94%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-6,98%</t>
+          <t>20,4%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-13,49%</t>
+          <t>-8,49%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-21,27%</t>
+          <t>-0,41%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-11,42%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-11,9%</t>
+          <t>-4,2%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-5,75%</t>
+          <t>3,78%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-39,49; 7,29</t>
+          <t>-5,61; 50,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,77; 17,28</t>
+          <t>-16,81; 29,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 50,08</t>
+          <t>-11,07; 35,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,01; 10,34</t>
+          <t>3,59; 42,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-28,31; 4,34</t>
+          <t>-23,3; 10,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-49,32; -2,62</t>
+          <t>-19,21; 17,81</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-23,29; 4,4</t>
+          <t>6,13; 37,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-24,53; 3,23</t>
+          <t>-17,15; 10,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,12; 8,68</t>
+          <t>-10,92; 18,0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>2,39</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 6,21</t>
+          <t>-0,15; 3,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 3,71</t>
+          <t>-1,1; 2,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 4,65</t>
+          <t>0,78; 27,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,77; 8,63</t>
+          <t>0,51; 4,59</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 2,06</t>
+          <t>-2,39; 1,59</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 5,21</t>
+          <t>-6,16; -0,06</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,18; 6,48</t>
+          <t>0,82; 3,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 1,81</t>
+          <t>-1,25; 1,51</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 4,23</t>
+          <t>-1,01; 12,86</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>52,5%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-8,49%</t>
+          <t>-1,86%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>-10,24%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-4,2%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>12,79%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 50,51</t>
+          <t>-1,05; 26,88</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-16,81; 29,32</t>
+          <t>-7,49; 18,36</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 36,53</t>
+          <t>5,63; 197,56</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3,59; 42,03</t>
+          <t>1,98; 20,41</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-23,3; 10,26</t>
+          <t>-9,93; 7,1</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 25,43</t>
+          <t>-25,67; -0,36</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>6,13; 37,96</t>
+          <t>4,23; 19,41</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 10,84</t>
+          <t>-6,45; 8,4</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 24,36</t>
+          <t>-5,29; 70,43</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,64</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>2,96</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,49</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,43</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,9</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>2,09</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>1,13</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,15; 3,52</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 2,41</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 7,54</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,51; 4,59</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-2,39; 1,59</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-3,29; 1,11</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 3,49</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-1,25; 1,51</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 3,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>11,76%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>4,07%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>21,27%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>10,73%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-1,86%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-3,86%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>11,21%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>0,46%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>6,06%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-1,05; 26,88</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-7,49; 18,36</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>6,17; 55,29</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>1,98; 20,41</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-9,93; 7,1</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-13,51; 4,87</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>4,23; 19,41</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-6,45; 8,4</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-2,53; 17,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P8_2_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P8_2_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 6,43</t>
+          <t>-1,12; 6,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 5,59</t>
+          <t>-1,92; 5,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 7,23</t>
+          <t>-0,24; 7,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 8,14</t>
+          <t>-1,14; 7,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 6,49</t>
+          <t>-2,44; 6,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 1,75</t>
+          <t>-7,48; 1,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 6,01</t>
+          <t>0,06; 6,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 5,12</t>
+          <t>-0,83; 5,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 3,41</t>
+          <t>-2,69; 3,8</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 53,63</t>
+          <t>-7,82; 49,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,04; 48,32</t>
+          <t>-12,76; 47,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 60,16</t>
+          <t>-2,01; 59,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 39,1</t>
+          <t>-4,85; 37,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 31,0</t>
+          <t>-9,41; 31,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,18; 8,4</t>
+          <t>-30,22; 8,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 35,04</t>
+          <t>0,42; 35,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 29,01</t>
+          <t>-4,16; 29,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 20,32</t>
+          <t>-13,35; 22,16</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 6,71</t>
+          <t>0,42; 6,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 4,55</t>
+          <t>-2,07; 4,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 49,78</t>
+          <t>-1,8; 50,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 6,51</t>
+          <t>-1,47; 6,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 5,69</t>
+          <t>-2,75; 5,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 3,28</t>
+          <t>-3,52; 3,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,68</t>
+          <t>0,36; 5,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 4,16</t>
+          <t>-0,93; 4,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 32,75</t>
+          <t>-1,08; 32,7</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 58,74</t>
+          <t>2,3; 58,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 40,04</t>
+          <t>-13,93; 37,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 411,81</t>
+          <t>-13,33; 429,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 31,48</t>
+          <t>-5,82; 32,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 27,2</t>
+          <t>-11,2; 24,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 15,77</t>
+          <t>-14,08; 15,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 33,26</t>
+          <t>1,92; 34,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 24,55</t>
+          <t>-5,37; 24,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 188,72</t>
+          <t>-5,73; 191,5</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 0,94</t>
+          <t>-6,51; 0,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 2,2</t>
+          <t>-5,85; 2,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 6,33</t>
+          <t>-1,69; 6,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 2,34</t>
+          <t>-6,34; 2,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 0,98</t>
+          <t>-7,87; 0,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,06; -1,67</t>
+          <t>-17,78; -2,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 0,79</t>
+          <t>-5,64; 0,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 0,59</t>
+          <t>-5,14; 0,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 0,43</t>
+          <t>-9,49; 0,5</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-39,49; 7,29</t>
+          <t>-38,24; 6,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,77; 17,28</t>
+          <t>-32,33; 16,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 46,22</t>
+          <t>-10,13; 47,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,01; 10,34</t>
+          <t>-23,37; 10,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,31; 4,34</t>
+          <t>-28,91; 4,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,43; -7,86</t>
+          <t>-65,88; -9,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,29; 4,4</t>
+          <t>-25,19; 3,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,53; 3,23</t>
+          <t>-23,42; 2,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-46,51; 1,99</t>
+          <t>-44,77; 2,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 6,21</t>
+          <t>-0,24; 6,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 3,71</t>
+          <t>-2,85; 3,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 4,41</t>
+          <t>-1,71; 4,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,77; 8,63</t>
+          <t>0,76; 8,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 2,06</t>
+          <t>-5,63; 1,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 3,77</t>
+          <t>-4,92; 3,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 6,48</t>
+          <t>1,1; 6,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 1,81</t>
+          <t>-3,14; 1,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 3,13</t>
+          <t>-2,42; 3,24</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 50,51</t>
+          <t>-1,73; 47,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,81; 29,32</t>
+          <t>-18,62; 29,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 35,48</t>
+          <t>-11,19; 32,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,59; 42,03</t>
+          <t>2,66; 39,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,3; 10,26</t>
+          <t>-22,78; 7,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 17,81</t>
+          <t>-20,24; 16,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,13; 37,96</t>
+          <t>5,63; 35,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 10,84</t>
+          <t>-16,13; 10,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 18,0</t>
+          <t>-12,18; 18,46</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,52</t>
+          <t>-0,13; 3,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,41</t>
+          <t>-1,28; 2,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,78; 27,62</t>
+          <t>0,72; 24,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,59</t>
+          <t>0,34; 4,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 1,59</t>
+          <t>-2,34; 1,64</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,16; -0,06</t>
+          <t>-6,41; -0,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,49</t>
+          <t>0,65; 3,37</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,51</t>
+          <t>-1,36; 1,38</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 12,86</t>
+          <t>-1,06; 13,18</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 26,88</t>
+          <t>-0,76; 26,39</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 18,36</t>
+          <t>-8,41; 17,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>5,63; 197,56</t>
+          <t>5,08; 178,12</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1,98; 20,41</t>
+          <t>1,4; 20,51</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 7,1</t>
+          <t>-9,82; 7,44</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-25,67; -0,36</t>
+          <t>-26,98; -0,79</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,23; 19,41</t>
+          <t>3,42; 19,11</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 8,4</t>
+          <t>-6,92; 7,71</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 70,43</t>
+          <t>-5,72; 72,82</t>
         </is>
       </c>
     </row>
